--- a/BackEndLogic-Stubs/Use Casses.xlsx
+++ b/BackEndLogic-Stubs/Use Casses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects Details\C_C New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects Details\C_C New\BackEndLogic-Stubs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t xml:space="preserve">Requests </t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Email, Code</t>
-  </si>
-  <si>
-    <t>Username, Password, First Name, Last Name, Email, Phone, Photo</t>
   </si>
   <si>
     <t>connectcollect.com/register_step2</t>
@@ -629,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +639,7 @@
     <col min="4" max="4" width="71.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +650,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -664,7 +664,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -675,7 +678,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -686,7 +692,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -697,379 +706,498 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/BackEndLogic-Stubs/Use Casses.xlsx
+++ b/BackEndLogic-Stubs/Use Casses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t xml:space="preserve">Requests </t>
   </si>
@@ -306,6 +306,33 @@
   </si>
   <si>
     <t>All deliverd jobs , Total No. of deliverd jobs , Total No. of Pages</t>
+  </si>
+  <si>
+    <t>connectcollect.com/forgot_password/</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>it check email and then send code to user email address</t>
+  </si>
+  <si>
+    <t>connectcollect.com/password_reset/</t>
+  </si>
+  <si>
+    <t>User Email, varification Code</t>
+  </si>
+  <si>
+    <t>connectcollect.com/verify_password_reset_code/</t>
+  </si>
+  <si>
+    <t>User Email, varification Code, New Password</t>
+  </si>
+  <si>
+    <t>connectcollect.com/editt_credit_card_address_info/</t>
+  </si>
+  <si>
+    <t>Houser number, Street, Town/City, County, Postcode, Country, User_ID, Address_ID</t>
   </si>
 </sst>
 </file>
@@ -626,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1226,48 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BackEndLogic-Stubs/Use Casses.xlsx
+++ b/BackEndLogic-Stubs/Use Casses.xlsx
@@ -29,9 +29,6 @@
     <t xml:space="preserve">Requests </t>
   </si>
   <si>
-    <t>connectcollect.com/login</t>
-  </si>
-  <si>
     <t>Send Request</t>
   </si>
   <si>
@@ -44,126 +41,57 @@
     <t>true/false , success/failed</t>
   </si>
   <si>
-    <t>connectcollect.com/register</t>
-  </si>
-  <si>
-    <t>connectcollect.com/register_check_email</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>true/false</t>
   </si>
   <si>
-    <t>connectcollect.com/register_email_verification_code</t>
-  </si>
-  <si>
-    <t>connectcollect.com/register_email_verify_code</t>
-  </si>
-  <si>
     <t>Email, Code</t>
   </si>
   <si>
-    <t>connectcollect.com/register_step2</t>
-  </si>
-  <si>
     <t>Houser number, Street, Town/City, County, Postcode, Country, Register as Courier?</t>
   </si>
   <si>
     <t>true/false , sender/courier</t>
   </si>
   <si>
-    <t>connectcollect.com/register_courier</t>
-  </si>
-  <si>
     <t>Transport Type, Province, County</t>
   </si>
   <si>
-    <t>connectcollect.com/register_courier_deposit_fee</t>
-  </si>
-  <si>
     <t>Deposit Fee</t>
   </si>
   <si>
-    <t>connectcollect.com/register_courier_deposit_fee_card_payment</t>
-  </si>
-  <si>
     <t>Name, Card Number, Expiration Date, CVV</t>
   </si>
   <si>
-    <t>connectcollect.com/register_courier_deposit_fee_paypal_payment</t>
-  </si>
-  <si>
-    <t>connectcollect.com/sender_all_jobs</t>
-  </si>
-  <si>
-    <t>connectcollect.com/courier_all_jobs</t>
-  </si>
-  <si>
-    <t>connectcollect.com/new_jobs</t>
-  </si>
-  <si>
-    <t>connectcollect.com/create_package_pickup_loaction</t>
-  </si>
-  <si>
     <t>Houser number, Street, Town/City, County, Postcode, Country</t>
   </si>
   <si>
-    <t>connectcollect.com/create_package_item_detail</t>
-  </si>
-  <si>
     <t>Image, Weight, Delivery Method</t>
   </si>
   <si>
-    <t>connectcollect.com/create_package_delivery_timing</t>
-  </si>
-  <si>
     <t>Time_from, Time_to, Belivered_by, Received by , Receiver Phone Number, Receiver Email, Signature Required, Photo Required, Urgent, Extra Insurance</t>
   </si>
   <si>
-    <t>connectcollect.com/create_package_urgent_fee</t>
-  </si>
-  <si>
     <t>Urgent_fee, Job_id</t>
   </si>
   <si>
-    <t>connectcollect.com/create_package_delivery_address</t>
-  </si>
-  <si>
     <t>Courier_ID</t>
   </si>
   <si>
     <t>All Courier Detail</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_detail/courier_id</t>
-  </si>
-  <si>
-    <t>connectcollect.com/rate_courier/</t>
-  </si>
-  <si>
     <t>Rate,  Rated_by, Reason, Courier_ID</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_history/</t>
-  </si>
-  <si>
-    <t>connectcollect.com/package_detail/</t>
-  </si>
-  <si>
     <t>Package_ID</t>
   </si>
   <si>
     <t>All package detail</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_cancel_job/</t>
-  </si>
-  <si>
-    <t>connectcollect.com/sender_cancel_job/</t>
-  </si>
-  <si>
     <t>Job_Id,  Sender_ID</t>
   </si>
   <si>
@@ -173,54 +101,27 @@
     <t>Courier_ID, Job_id, Pickup Date Time</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_job_accept_from_search_map/</t>
-  </si>
-  <si>
-    <t>connectcollect.com/courier_job_update_pickup_ETA/</t>
-  </si>
-  <si>
     <t>Courier_ID, Job_id, Updated Pickup Date Time</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_job_update_dropoff_ETA/</t>
-  </si>
-  <si>
     <t>Courier_ID, Job_id, Updated Drop-off Date Time</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_job_dropoff_photo/</t>
-  </si>
-  <si>
     <t>Courier_ID, Job_id, Drop-off Photo</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_job_Delivered/</t>
-  </si>
-  <si>
     <t>Courier_ID, Job_id</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_job_no_one_home/</t>
-  </si>
-  <si>
     <t>Courier_ID, Job_id, comment, Photo</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_job_package_not_ready/</t>
-  </si>
-  <si>
     <t>Courier_ID, Job_id, Location, Time</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_current_balance/</t>
-  </si>
-  <si>
     <t>Current Balance</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_payment_withdraw/</t>
-  </si>
-  <si>
     <t>Courier_ID, Amount</t>
   </si>
   <si>
@@ -233,45 +134,24 @@
     <t>Delivered Packages, Total No. of Delivered Packages , Total No. of Pages</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_withdraw_history_delivered/</t>
-  </si>
-  <si>
-    <t>connectcollect.com/courier_withdraw_history_amount/</t>
-  </si>
-  <si>
     <t>Withdraw Amount List, Total No. of Withdraw Amount List , Total No. of Pages</t>
   </si>
   <si>
-    <t>connectcollect.com/courier_withdraw_pending_cancel/</t>
-  </si>
-  <si>
     <t>Pending Cancel List, Total No. of Pending Cancel List , Total No. of Pages</t>
   </si>
   <si>
     <t>User_ID (sender/courier)</t>
   </si>
   <si>
-    <t>connectcollect.com/get_credit_card_info/</t>
-  </si>
-  <si>
-    <t>connectcollect.com/edit_credit_card_info/</t>
-  </si>
-  <si>
     <t>Name, Card Type, Card_number, Exp_date, CVV</t>
   </si>
   <si>
     <t>User_ID (sender/courier), Name, Card Type, Card_number, Exp_date, CVV</t>
   </si>
   <si>
-    <t>connectcollect.com/add_credit_card_address_info/</t>
-  </si>
-  <si>
     <t>Houser number, Street, Town/City, County, Postcode, Country, User_ID</t>
   </si>
   <si>
-    <t>connectcollect.com/get_credit_card_address_info/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Per_page, Page No. </t>
   </si>
   <si>
@@ -284,21 +164,12 @@
     <t>new unassign jobs for courier, Total No. Unassign of jobs , Total No. of Pages</t>
   </si>
   <si>
-    <t>connectcollect.com/sender_delivered_history/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sender_ID, Per_page, Page No. </t>
   </si>
   <si>
     <t>All deliverd jobs , Total No. of deliverd  jobs , Total No. of Pages</t>
   </si>
   <si>
-    <t>connectcollect.com/sender_expired_history/</t>
-  </si>
-  <si>
-    <t>connectcollect.com/sender_cancel_history/</t>
-  </si>
-  <si>
     <t>All expired jobs , Total No. of expired jobs , Total No. of Pages</t>
   </si>
   <si>
@@ -308,31 +179,160 @@
     <t>All deliverd jobs , Total No. of deliverd jobs , Total No. of Pages</t>
   </si>
   <si>
-    <t>connectcollect.com/forgot_password/</t>
-  </si>
-  <si>
     <t>User Email</t>
   </si>
   <si>
     <t>it check email and then send code to user email address</t>
   </si>
   <si>
-    <t>connectcollect.com/password_reset/</t>
-  </si>
-  <si>
     <t>User Email, varification Code</t>
   </si>
   <si>
-    <t>connectcollect.com/verify_password_reset_code/</t>
-  </si>
-  <si>
     <t>User Email, varification Code, New Password</t>
   </si>
   <si>
-    <t>connectcollect.com/editt_credit_card_address_info/</t>
-  </si>
-  <si>
     <t>Houser number, Street, Town/City, County, Postcode, Country, User_ID, Address_ID</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>/register_check_email</t>
+  </si>
+  <si>
+    <t>/register_email_verification_code</t>
+  </si>
+  <si>
+    <t>/register_email_verify_code</t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
+    <t>/register_step2</t>
+  </si>
+  <si>
+    <t>/register_courier</t>
+  </si>
+  <si>
+    <t>/register_courier_deposit_fee</t>
+  </si>
+  <si>
+    <t>/register_courier_deposit_fee_card_payment</t>
+  </si>
+  <si>
+    <t>/register_courier_deposit_fee_paypal_payment</t>
+  </si>
+  <si>
+    <t>/sender_all_jobs</t>
+  </si>
+  <si>
+    <t>/courier_all_jobs</t>
+  </si>
+  <si>
+    <t>/new_jobs</t>
+  </si>
+  <si>
+    <t>/create_package_pickup_loaction</t>
+  </si>
+  <si>
+    <t>/create_package_item_detail</t>
+  </si>
+  <si>
+    <t>/create_package_delivery_timing</t>
+  </si>
+  <si>
+    <t>/create_package_urgent_fee</t>
+  </si>
+  <si>
+    <t>/create_package_delivery_address</t>
+  </si>
+  <si>
+    <t>/courier_detail/courier_id</t>
+  </si>
+  <si>
+    <t>/rate_courier/</t>
+  </si>
+  <si>
+    <t>/sender_delivered_history/</t>
+  </si>
+  <si>
+    <t>/sender_expired_history/</t>
+  </si>
+  <si>
+    <t>/sender_cancel_history/</t>
+  </si>
+  <si>
+    <t>/courier_history/</t>
+  </si>
+  <si>
+    <t>/package_detail/</t>
+  </si>
+  <si>
+    <t>/courier_cancel_job/</t>
+  </si>
+  <si>
+    <t>/sender_cancel_job/</t>
+  </si>
+  <si>
+    <t>/courier_job_accept_from_search_map/</t>
+  </si>
+  <si>
+    <t>/courier_job_update_pickup_ETA/</t>
+  </si>
+  <si>
+    <t>/courier_job_package_not_ready/</t>
+  </si>
+  <si>
+    <t>/courier_job_update_dropoff_ETA/</t>
+  </si>
+  <si>
+    <t>/courier_job_dropoff_photo/</t>
+  </si>
+  <si>
+    <t>/courier_job_Delivered/</t>
+  </si>
+  <si>
+    <t>/courier_job_no_one_home/</t>
+  </si>
+  <si>
+    <t>/courier_current_balance/</t>
+  </si>
+  <si>
+    <t>/courier_payment_withdraw/</t>
+  </si>
+  <si>
+    <t>/courier_withdraw_history_delivered/</t>
+  </si>
+  <si>
+    <t>/courier_withdraw_history_amount/</t>
+  </si>
+  <si>
+    <t>/courier_withdraw_pending_cancel/</t>
+  </si>
+  <si>
+    <t>/edit_credit_card_info/</t>
+  </si>
+  <si>
+    <t>/get_credit_card_info/</t>
+  </si>
+  <si>
+    <t>/add_credit_card_address_info/</t>
+  </si>
+  <si>
+    <t>/get_credit_card_address_info/</t>
+  </si>
+  <si>
+    <t>/editt_credit_card_address_info/</t>
+  </si>
+  <si>
+    <t>/forgot_password/</t>
+  </si>
+  <si>
+    <t>/verify_password_reset_code/</t>
+  </si>
+  <si>
+    <t>/password_reset/</t>
   </si>
 </sst>
 </file>
@@ -655,13 +655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="85.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,10 +785,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +835,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +849,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,10 +885,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,13 +907,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,13 +932,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,13 +946,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,13 +960,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,13 +974,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,13 +988,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,10 +1024,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,13 +1101,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1115,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1129,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1143,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1157,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1171,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1213,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,46 +1227,46 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/BackEndLogic-Stubs/Use Casses.xlsx
+++ b/BackEndLogic-Stubs/Use Casses.xlsx
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/BackEndLogic-Stubs/Use Casses.xlsx
+++ b/BackEndLogic-Stubs/Use Casses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t xml:space="preserve">Requests </t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>/password_reset/</t>
+  </si>
+  <si>
+    <t>/jobs_for_map_view/</t>
+  </si>
+  <si>
+    <t>courier_counties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs short details </t>
   </si>
 </sst>
 </file>
@@ -653,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,10 +1033,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,10 +1047,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,10 +1058,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,10 +1069,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,10 +1080,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,10 +1091,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,10 +1102,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,13 +1113,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1124,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1152,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1166,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1180,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1194,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1208,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1222,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,45 +1236,56 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>102</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
     </row>
